--- a/starter/src/main/resources/excel/keyword.xlsx
+++ b/starter/src/main/resources/excel/keyword.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28900" windowHeight="12200"/>
+    <workbookView windowWidth="31360" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="自动回复" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
-  <si>
-    <t>匹配关键词：
-    * 有时候我们希望能匹配多个关键词时，可以使用 “|” 分隔不同的关键词
-    * 模糊匹配使用 “*” 符号，例如 “你好*”，那么只要用户输入的内容以 “你好” 开头就会回复你设置的回复内容.
-    * 开始结束匹配符，可以使用 “啥时[and]发货” 这样表达，那么只要用户输入的内容以 “啥时” 开头，并且以 “发货” 结尾，就能匹配上你设置的关键词
-回复内容：
-    * 有时候我们希望能有多个随机回答，可以使用 “|” 来分隔不同的句子；
-    * 使用 “[~]” 表示一个随机符，在拼多多平台等平台，是不允许每次重复一个回答的，所以可以插入一个随机符，以规避这个问题；</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+  <si>
+    <t>分类(必填)</t>
   </si>
   <si>
     <t>关键词</t>
@@ -47,6 +41,9 @@
     <t>匹配模式</t>
   </si>
   <si>
+    <t>分类1</t>
+  </si>
+  <si>
     <t>时候[and]发货|啥时[and]发货|多久[and]发货|今天[and]发货|尽快[and]发货</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
     <t>您好，我们是随机安排的，一般来说可能根据地区稍有区别。放心时效都很快的哦。|亲，我们会根据您的地区选择最快时效的快递哦。您放心呢|亲，这个不用担心，我们会根据您的地区帮您安排运输最快速稳定的快递哦。</t>
   </si>
   <si>
+    <t>分类2</t>
+  </si>
+  <si>
     <t>退款[and]怎么办|怎么[and]退款|退款[and]流程|退款[and]操作</t>
   </si>
   <si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>亲，具体的尺码信息您可以在商品详情页找到尺码表哦，有疑问随时问我。|关于尺码问题，我们页面有详细的尺码对照表，您可以参考一下。|亲，为了确保合身，建议您根据我们提供的尺码表来选择哦。</t>
+  </si>
+  <si>
+    <t>分类3</t>
   </si>
   <si>
     <t>账号登录问题|无法登录|忘记密码</t>
@@ -150,17 +153,10 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -628,141 +624,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1146,205 +1139,245 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="73.875" customWidth="1"/>
-    <col min="2" max="2" width="152.240384615385" customWidth="1"/>
-    <col min="3" max="3" width="12.8173076923077" customWidth="1"/>
+    <col min="1" max="1" width="25.1634615384615" customWidth="1"/>
+    <col min="2" max="2" width="73.875" customWidth="1"/>
+    <col min="3" max="3" width="152.240384615385" customWidth="1"/>
+    <col min="4" max="4" width="12.8173076923077" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="150" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
